--- a/실무_엑셀_예제_파일/Chapter03/03-006.xlsx
+++ b/실무_엑셀_예제_파일/Chapter03/03-006.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oppadu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31762B42-ACC2-4E7B-A4F8-0AFA6B0A1A3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A107377-3328-4163-A9A8-D883E3F6719D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2352" yWindow="444" windowWidth="11436" windowHeight="10560" xr2:uid="{20F19812-85AA-40F3-9D1C-B969FC482DF3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{20F19812-85AA-40F3-9D1C-B969FC482DF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -214,9 +214,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,31 +535,31 @@
   <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.296875" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="3" max="4" width="13.8984375" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" customWidth="1"/>
+    <col min="3" max="4" width="13.9140625" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" customWidth="1"/>
+    <col min="6" max="6" width="11.4140625" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:7" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -575,14 +572,14 @@
       <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -603,7 +600,7 @@
         <v>0.11396011396011396</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -624,7 +621,7 @@
         <v>0.45807453416149069</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -645,7 +642,7 @@
         <v>-0.32500000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -666,7 +663,7 @@
         <v>0.12653061224489795</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -687,7 +684,7 @@
         <v>0.11805555555555555</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -708,7 +705,7 @@
         <v>-0.17491254372813594</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -729,7 +726,7 @@
         <v>-0.17219113215669393</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -750,7 +747,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -771,7 +768,7 @@
         <v>6.8710359408033828E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
@@ -792,7 +789,7 @@
         <v>2.4778761061946906E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
@@ -813,7 +810,7 @@
         <v>0.17444601603017446</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
@@ -839,6 +836,40 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G5:G16">
+    <cfRule type="iconSet" priority="1">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{31A7A720-ED0C-4CBB-BB3F-0E9C28E62419}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0.8</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0.8</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E5:E16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>